--- a/biology/Botanique/Byblis_aquatica/Byblis_aquatica.xlsx
+++ b/biology/Botanique/Byblis_aquatica/Byblis_aquatica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Byblis aquatica est une espèce végétale semi-aquatique dicotylédone de la famille des  Byblidaceae, une plante carnivore herbacée (à mécanisme passif) qui se développe rapidement, originaire du nord de l'Australie.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Byblis aquatica est une plante annuelle, relativement commune. Elle possède une tige érigée de 5 cm au début de sa croissance et peut s'allonger à plus de 40 cm. Cette tige est couchée au sol ou flotte dans l'eau pendant la saison des pluies. Ses feuilles sont cylindriques, de 3 à 3.5 cm de longueur, de couleur vert marron, couvertes de nombreuses glandes à mucilage. Les multiples fleurs font 12 mm, sont solitaires, axillaires, c'est-à-dire placées à l'aisselle d'une feuille. Les fleurs ont des épanouissements successifs de janvier à mai, sur pédicelles de 2 à 3 cm, comportant 5 pétales et 5 étamines.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve la Byblis aquatica dans les marécages ou dépressions inondées de façon saisonnière, avec une préférence pour les sols argileux de faible profondeur.  
 </t>
@@ -573,9 +589,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est présente en Nouvelle-Guinée et en Australie[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente en Nouvelle-Guinée et en Australie.
 </t>
         </is>
       </c>
